--- a/Model/BayesLSTM/Univariate/result/Service/USA.xlsx
+++ b/Model/BayesLSTM/Univariate/result/Service/USA.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>2005</v>
       </c>
       <c r="B2" t="n">
-        <v>75.31426239013672</v>
+        <v>74.78958892822266</v>
       </c>
       <c r="C2" t="n">
-        <v>73.958984375</v>
+        <v>73.83243560791016</v>
       </c>
       <c r="D2" t="n">
-        <v>76.66954040527344</v>
+        <v>75.74674224853516</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>2006</v>
       </c>
       <c r="B3" t="n">
-        <v>75.42681121826172</v>
+        <v>74.73149108886719</v>
       </c>
       <c r="C3" t="n">
-        <v>74.18817138671875</v>
+        <v>73.93266296386719</v>
       </c>
       <c r="D3" t="n">
-        <v>76.66545104980469</v>
+        <v>75.53031921386719</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>2007</v>
       </c>
       <c r="B4" t="n">
-        <v>75.53412628173828</v>
+        <v>74.73649597167969</v>
       </c>
       <c r="C4" t="n">
-        <v>74.60166931152344</v>
+        <v>74.08602905273438</v>
       </c>
       <c r="D4" t="n">
-        <v>76.46658325195312</v>
+        <v>75.386962890625</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>2008</v>
       </c>
       <c r="B5" t="n">
-        <v>75.32083129882812</v>
+        <v>74.72818756103516</v>
       </c>
       <c r="C5" t="n">
-        <v>74.32094573974609</v>
+        <v>74.10040283203125</v>
       </c>
       <c r="D5" t="n">
-        <v>76.32071685791016</v>
+        <v>75.35597229003906</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>2009</v>
       </c>
       <c r="B6" t="n">
-        <v>75.20643615722656</v>
+        <v>74.84011840820312</v>
       </c>
       <c r="C6" t="n">
-        <v>73.60742950439453</v>
+        <v>74.10556030273438</v>
       </c>
       <c r="D6" t="n">
-        <v>76.80544281005859</v>
+        <v>75.57467651367188</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>2010</v>
       </c>
       <c r="B7" t="n">
-        <v>75.29536437988281</v>
+        <v>74.82038879394531</v>
       </c>
       <c r="C7" t="n">
-        <v>73.91851043701172</v>
+        <v>74.13395690917969</v>
       </c>
       <c r="D7" t="n">
-        <v>76.67221832275391</v>
+        <v>75.50682067871094</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>2011</v>
       </c>
       <c r="B8" t="n">
-        <v>75.51349639892578</v>
+        <v>74.82422637939453</v>
       </c>
       <c r="C8" t="n">
-        <v>74.58721923828125</v>
+        <v>74.16567230224609</v>
       </c>
       <c r="D8" t="n">
-        <v>76.43977355957031</v>
+        <v>75.48278045654297</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>2012</v>
       </c>
       <c r="B9" t="n">
-        <v>75.54736328125</v>
+        <v>74.85862731933594</v>
       </c>
       <c r="C9" t="n">
-        <v>74.80448913574219</v>
+        <v>74.21326446533203</v>
       </c>
       <c r="D9" t="n">
-        <v>76.29023742675781</v>
+        <v>75.50399017333984</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>2013</v>
       </c>
       <c r="B10" t="n">
-        <v>75.58853149414062</v>
+        <v>74.79359436035156</v>
       </c>
       <c r="C10" t="n">
-        <v>74.66690063476562</v>
+        <v>74.15782165527344</v>
       </c>
       <c r="D10" t="n">
-        <v>76.51016235351562</v>
+        <v>75.42936706542969</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>2014</v>
       </c>
       <c r="B11" t="n">
-        <v>75.48480224609375</v>
+        <v>74.76530456542969</v>
       </c>
       <c r="C11" t="n">
-        <v>74.57294464111328</v>
+        <v>74.0946044921875</v>
       </c>
       <c r="D11" t="n">
-        <v>76.39665985107422</v>
+        <v>75.43600463867188</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>2015</v>
       </c>
       <c r="B12" t="n">
-        <v>75.33738708496094</v>
+        <v>74.77616882324219</v>
       </c>
       <c r="C12" t="n">
-        <v>74.15427398681641</v>
+        <v>74.02368927001953</v>
       </c>
       <c r="D12" t="n">
-        <v>76.52050018310547</v>
+        <v>75.52864837646484</v>
       </c>
     </row>
     <row r="13">
@@ -617,83 +617,13 @@
         <v>2016</v>
       </c>
       <c r="B13" t="n">
-        <v>75.22551727294922</v>
+        <v>74.64381408691406</v>
       </c>
       <c r="C13" t="n">
-        <v>74.02649688720703</v>
+        <v>73.75318908691406</v>
       </c>
       <c r="D13" t="n">
-        <v>76.42453765869141</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B14" t="n">
-        <v>75.41864013671875</v>
-      </c>
-      <c r="C14" t="n">
-        <v>74.03666687011719</v>
-      </c>
-      <c r="D14" t="n">
-        <v>76.80061340332031</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B15" t="n">
-        <v>75.26069641113281</v>
-      </c>
-      <c r="C15" t="n">
-        <v>73.71924591064453</v>
-      </c>
-      <c r="D15" t="n">
-        <v>76.80214691162109</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B16" t="n">
-        <v>75.17134857177734</v>
-      </c>
-      <c r="C16" t="n">
-        <v>73.74716186523438</v>
-      </c>
-      <c r="D16" t="n">
-        <v>76.59553527832031</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B17" t="n">
-        <v>75.26996612548828</v>
-      </c>
-      <c r="C17" t="n">
-        <v>73.80093383789062</v>
-      </c>
-      <c r="D17" t="n">
-        <v>76.73899841308594</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B18" t="n">
-        <v>75.17214202880859</v>
-      </c>
-      <c r="C18" t="n">
-        <v>73.98293304443359</v>
-      </c>
-      <c r="D18" t="n">
-        <v>76.36135101318359</v>
+        <v>75.53443908691406</v>
       </c>
     </row>
   </sheetData>
@@ -739,72 +669,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>75.55962753295898</v>
+        <v>74.88669586181641</v>
       </c>
       <c r="C2" t="n">
-        <v>74.72104517508605</v>
+        <v>74.05717468261719</v>
       </c>
       <c r="D2" t="n">
-        <v>76.39820989083192</v>
+        <v>75.71621704101562</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>76.17284851074218</v>
+        <v>74.71233367919922</v>
       </c>
       <c r="C3" t="n">
-        <v>75.28255472048822</v>
+        <v>73.76385498046875</v>
       </c>
       <c r="D3" t="n">
-        <v>77.06314230099615</v>
+        <v>75.66081237792969</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>76.42541809082032</v>
+        <v>74.84292602539062</v>
       </c>
       <c r="C4" t="n">
-        <v>75.87434400253933</v>
+        <v>73.92555999755859</v>
       </c>
       <c r="D4" t="n">
-        <v>76.9764921791013</v>
+        <v>75.76029205322266</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>76.63774108886719</v>
+        <v>74.8502197265625</v>
       </c>
       <c r="C5" t="n">
-        <v>75.40513431646482</v>
+        <v>73.89888000488281</v>
       </c>
       <c r="D5" t="n">
-        <v>77.87034786126955</v>
+        <v>75.80155944824219</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>75.49111404418946</v>
+        <v>74.77000427246094</v>
       </c>
       <c r="C6" t="n">
-        <v>74.60838227329808</v>
+        <v>74.01834106445312</v>
       </c>
       <c r="D6" t="n">
-        <v>76.37384581508084</v>
+        <v>75.52166748046875</v>
       </c>
     </row>
   </sheetData>
@@ -853,13 +783,13 @@
         <v>2005</v>
       </c>
       <c r="B2" t="n">
-        <v>75.03299713134766</v>
+        <v>76.34516906738281</v>
       </c>
       <c r="C2" t="n">
-        <v>74.60610198974609</v>
+        <v>75.81112670898438</v>
       </c>
       <c r="D2" t="n">
-        <v>75.45989227294922</v>
+        <v>76.87921142578125</v>
       </c>
     </row>
     <row r="3">
@@ -867,13 +797,13 @@
         <v>2006</v>
       </c>
       <c r="B3" t="n">
-        <v>75.08412170410156</v>
+        <v>75.90858459472656</v>
       </c>
       <c r="C3" t="n">
-        <v>74.56726837158203</v>
+        <v>75.45098876953125</v>
       </c>
       <c r="D3" t="n">
-        <v>75.60097503662109</v>
+        <v>76.36618041992188</v>
       </c>
     </row>
     <row r="4">
@@ -881,13 +811,13 @@
         <v>2007</v>
       </c>
       <c r="B4" t="n">
-        <v>75.06940460205078</v>
+        <v>76.29801177978516</v>
       </c>
       <c r="C4" t="n">
-        <v>74.5550537109375</v>
+        <v>75.56810760498047</v>
       </c>
       <c r="D4" t="n">
-        <v>75.58375549316406</v>
+        <v>77.02791595458984</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +825,13 @@
         <v>2008</v>
       </c>
       <c r="B5" t="n">
-        <v>75.08734130859375</v>
+        <v>76.16666412353516</v>
       </c>
       <c r="C5" t="n">
-        <v>74.72412872314453</v>
+        <v>75.513671875</v>
       </c>
       <c r="D5" t="n">
-        <v>75.45055389404297</v>
+        <v>76.81965637207031</v>
       </c>
     </row>
     <row r="6">
@@ -909,13 +839,13 @@
         <v>2009</v>
       </c>
       <c r="B6" t="n">
-        <v>74.93120574951172</v>
+        <v>76.31217193603516</v>
       </c>
       <c r="C6" t="n">
-        <v>74.22081756591797</v>
+        <v>75.47950744628906</v>
       </c>
       <c r="D6" t="n">
-        <v>75.64159393310547</v>
+        <v>77.14483642578125</v>
       </c>
     </row>
     <row r="7">
@@ -923,13 +853,13 @@
         <v>2010</v>
       </c>
       <c r="B7" t="n">
-        <v>75.02907562255859</v>
+        <v>76.10194396972656</v>
       </c>
       <c r="C7" t="n">
-        <v>74.47284698486328</v>
+        <v>75.57611083984375</v>
       </c>
       <c r="D7" t="n">
-        <v>75.58530426025391</v>
+        <v>76.62777709960938</v>
       </c>
     </row>
     <row r="8">
@@ -937,13 +867,13 @@
         <v>2011</v>
       </c>
       <c r="B8" t="n">
-        <v>75.03788757324219</v>
+        <v>76.24755859375</v>
       </c>
       <c r="C8" t="n">
-        <v>74.45520782470703</v>
+        <v>75.35972595214844</v>
       </c>
       <c r="D8" t="n">
-        <v>75.62056732177734</v>
+        <v>77.13539123535156</v>
       </c>
     </row>
     <row r="9">
@@ -951,13 +881,13 @@
         <v>2012</v>
       </c>
       <c r="B9" t="n">
-        <v>74.98976135253906</v>
+        <v>76.24674987792969</v>
       </c>
       <c r="C9" t="n">
-        <v>74.45748138427734</v>
+        <v>75.42977905273438</v>
       </c>
       <c r="D9" t="n">
-        <v>75.52204132080078</v>
+        <v>77.063720703125</v>
       </c>
     </row>
     <row r="10">
@@ -965,13 +895,13 @@
         <v>2013</v>
       </c>
       <c r="B10" t="n">
-        <v>74.9937744140625</v>
+        <v>76.32209014892578</v>
       </c>
       <c r="C10" t="n">
-        <v>74.38163757324219</v>
+        <v>75.73708343505859</v>
       </c>
       <c r="D10" t="n">
-        <v>75.60591125488281</v>
+        <v>76.90709686279297</v>
       </c>
     </row>
     <row r="11">
@@ -979,13 +909,13 @@
         <v>2014</v>
       </c>
       <c r="B11" t="n">
-        <v>74.94480895996094</v>
+        <v>76.21125793457031</v>
       </c>
       <c r="C11" t="n">
-        <v>74.27359771728516</v>
+        <v>75.28092956542969</v>
       </c>
       <c r="D11" t="n">
-        <v>75.61602020263672</v>
+        <v>77.14158630371094</v>
       </c>
     </row>
     <row r="12">
@@ -993,13 +923,13 @@
         <v>2015</v>
       </c>
       <c r="B12" t="n">
-        <v>74.82466125488281</v>
+        <v>76.25254821777344</v>
       </c>
       <c r="C12" t="n">
-        <v>74.14764404296875</v>
+        <v>75.68255615234375</v>
       </c>
       <c r="D12" t="n">
-        <v>75.50167846679688</v>
+        <v>76.82254028320312</v>
       </c>
     </row>
     <row r="13">
@@ -1007,13 +937,13 @@
         <v>2016</v>
       </c>
       <c r="B13" t="n">
-        <v>74.90963745117188</v>
+        <v>76.10533142089844</v>
       </c>
       <c r="C13" t="n">
-        <v>74.37355041503906</v>
+        <v>75.31542205810547</v>
       </c>
       <c r="D13" t="n">
-        <v>75.44572448730469</v>
+        <v>76.89524078369141</v>
       </c>
     </row>
     <row r="14">
@@ -1021,13 +951,13 @@
         <v>2017</v>
       </c>
       <c r="B14" t="n">
-        <v>74.89727020263672</v>
+        <v>76.13693237304688</v>
       </c>
       <c r="C14" t="n">
-        <v>74.33316802978516</v>
+        <v>75.58285522460938</v>
       </c>
       <c r="D14" t="n">
-        <v>75.46137237548828</v>
+        <v>76.69100952148438</v>
       </c>
     </row>
     <row r="15">
@@ -1035,13 +965,13 @@
         <v>2018</v>
       </c>
       <c r="B15" t="n">
-        <v>74.80686187744141</v>
+        <v>76.18269348144531</v>
       </c>
       <c r="C15" t="n">
-        <v>74.30339050292969</v>
+        <v>75.31637573242188</v>
       </c>
       <c r="D15" t="n">
-        <v>75.31033325195312</v>
+        <v>77.04901123046875</v>
       </c>
     </row>
     <row r="16">
@@ -1049,13 +979,13 @@
         <v>2019</v>
       </c>
       <c r="B16" t="n">
-        <v>74.95505523681641</v>
+        <v>76.31401824951172</v>
       </c>
       <c r="C16" t="n">
-        <v>74.46751403808594</v>
+        <v>75.62168884277344</v>
       </c>
       <c r="D16" t="n">
-        <v>75.44259643554688</v>
+        <v>77.00634765625</v>
       </c>
     </row>
     <row r="17">
@@ -1063,13 +993,13 @@
         <v>2020</v>
       </c>
       <c r="B17" t="n">
-        <v>74.80470275878906</v>
+        <v>76.37568664550781</v>
       </c>
       <c r="C17" t="n">
-        <v>74.30461883544922</v>
+        <v>75.61690521240234</v>
       </c>
       <c r="D17" t="n">
-        <v>75.30478668212891</v>
+        <v>77.13446807861328</v>
       </c>
     </row>
     <row r="18">
@@ -1077,13 +1007,13 @@
         <v>2021</v>
       </c>
       <c r="B18" t="n">
-        <v>74.966552734375</v>
+        <v>76.41555023193359</v>
       </c>
       <c r="C18" t="n">
-        <v>74.40414428710938</v>
+        <v>75.51580810546875</v>
       </c>
       <c r="D18" t="n">
-        <v>75.52896118164062</v>
+        <v>77.31529235839844</v>
       </c>
     </row>
   </sheetData>
@@ -1132,13 +1062,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>75.21137161254883</v>
+        <v>75.5673110961914</v>
       </c>
       <c r="C2" t="n">
-        <v>74.84895660176272</v>
+        <v>75.1302324087319</v>
       </c>
       <c r="D2" t="n">
-        <v>75.57378662333494</v>
+        <v>76.00438978365091</v>
       </c>
     </row>
     <row r="3">
@@ -1146,13 +1076,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>75.23957672119141</v>
+        <v>77.08235473632813</v>
       </c>
       <c r="C3" t="n">
-        <v>74.50339976030297</v>
+        <v>75.74101855188354</v>
       </c>
       <c r="D3" t="n">
-        <v>75.97575368207985</v>
+        <v>78.42369092077271</v>
       </c>
     </row>
     <row r="4">
@@ -1160,13 +1090,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>74.50445022583008</v>
+        <v>77.93543319702148</v>
       </c>
       <c r="C4" t="n">
-        <v>73.61102430669416</v>
+        <v>76.98384555447878</v>
       </c>
       <c r="D4" t="n">
-        <v>75.39787614496601</v>
+        <v>78.88702083956419</v>
       </c>
     </row>
     <row r="5">
@@ -1174,13 +1104,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>76.28914642333984</v>
+        <v>75.60452499389649</v>
       </c>
       <c r="C5" t="n">
-        <v>75.67243298371795</v>
+        <v>74.72536591788511</v>
       </c>
       <c r="D5" t="n">
-        <v>76.90585986296173</v>
+        <v>76.48368406990787</v>
       </c>
     </row>
     <row r="6">
@@ -1188,13 +1118,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>75.09809112548828</v>
+        <v>76.38720321655273</v>
       </c>
       <c r="C6" t="n">
-        <v>74.46319152661293</v>
+        <v>75.87867487646236</v>
       </c>
       <c r="D6" t="n">
-        <v>75.73299072436363</v>
+        <v>76.89573155664311</v>
       </c>
     </row>
   </sheetData>
